--- a/NBASponsershipsRawData.xlsx
+++ b/NBASponsershipsRawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/544eb1111fb4475e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{60CF619B-9981-409D-B1FA-612463B02B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A035D91-F53F-466E-837E-4E90FD9E9250}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{60CF619B-9981-409D-B1FA-612463B02B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F3D5F0-37C2-4248-B7B3-4CDD4964D6FF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{73FDB64A-C428-4F1A-8DF6-10DC64773788}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>Atlanta Hawks</t>
   </si>
@@ -92,10 +92,6 @@
     <t>American Airlines</t>
   </si>
   <si>
-    <t>1994 - present (renewed in 
-2013 for additional 20 years)</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
@@ -163,12 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve"> N/A</t>
-  </si>
-  <si>
-    <t>multi year deal</t>
-  </si>
-  <si>
-    <t>not disclosed</t>
   </si>
   <si>
     <t>(WNBA) Minnesota Lynx</t>
@@ -202,31 +192,13 @@
     <t>United Airlines</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Not Sponsored</t>
   </si>
   <si>
-    <t>&lt; 100</t>
-  </si>
-  <si>
-    <t>400/200</t>
-  </si>
-  <si>
-    <t>300 - 400</t>
-  </si>
-  <si>
-    <t>36 (not disclosed)</t>
-  </si>
-  <si>
     <t>Est SS Buying Cost (USD$ Million)</t>
   </si>
   <si>
     <t>Cost per Year (USD$ Million)</t>
-  </si>
-  <si>
-    <t>1990 - present (3 - 5 year annual renewal)</t>
   </si>
   <si>
     <t>Gainbridge Insurance Agency /Group 1001</t>
@@ -275,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,7 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -612,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2412D5BC-4E27-4950-9CAB-958A3E86CA2F}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,42 +602,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2019</v>
@@ -675,7 +646,7 @@
         <v>2021</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -684,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="4">
         <v>-740936</v>
@@ -695,10 +666,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>2016</v>
@@ -716,21 +687,21 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>1138000000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
@@ -748,10 +719,10 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
       </c>
       <c r="J4" s="4">
         <v>1146387940.74</v>
@@ -759,10 +730,10 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>2021</v>
@@ -771,7 +742,7 @@
         <v>2021</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -780,18 +751,18 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>44000000000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -812,21 +783,21 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3000000000000</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>2021</v>
@@ -835,30 +806,30 @@
         <v>2021</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>31207000000</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>1990</v>
@@ -866,31 +837,31 @@
       <c r="D8" s="3">
         <v>1990</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
+      <c r="E8" s="1">
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>1.5</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>28000000000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>2007</v>
@@ -901,28 +872,28 @@
       <c r="E9">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>57</v>
+      <c r="F9">
+        <v>200</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>66570000000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>2021</v>
@@ -931,7 +902,7 @@
         <v>2021</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -940,21 +911,21 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>-137572</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>2020</v>
@@ -965,19 +936,19 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
+      <c r="F11">
+        <v>400</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>1629280000000</v>
       </c>
     </row>
@@ -1004,21 +975,21 @@
         <v>8.75</v>
       </c>
       <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>100900000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>1994</v>
@@ -1026,22 +997,22 @@
       <c r="D13" s="3">
         <v>2013</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1.8</v>
       </c>
       <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>-613000000</v>
       </c>
     </row>
@@ -1068,12 +1039,12 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>985000000</v>
       </c>
     </row>
@@ -1082,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>2016</v>
@@ -1100,12 +1071,12 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>315720000000</v>
       </c>
     </row>
@@ -1114,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>2021</v>
@@ -1123,7 +1094,7 @@
         <v>2021</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1132,12 +1103,12 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>44000000000</v>
       </c>
     </row>
@@ -1164,12 +1135,12 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>3000000000000</v>
       </c>
     </row>
@@ -1178,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3">
         <v>1990</v>
@@ -1186,22 +1157,22 @@
       <c r="D18" s="3">
         <v>1990</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
+      <c r="E18" s="1">
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>1.5</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="5">
+        <v>37</v>
+      </c>
+      <c r="J18" s="4">
         <v>28000000000</v>
       </c>
     </row>
@@ -1213,10 +1184,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1228,13 +1199,13 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>2021</v>
@@ -1253,19 +1224,19 @@
       <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>6.6</v>
       </c>
       <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>24030000000</v>
       </c>
     </row>
@@ -1274,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2021</v>
@@ -1292,12 +1263,12 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>-137572</v>
       </c>
     </row>
